--- a/output_cycle2014_summary.xlsx
+++ b/output_cycle2014_summary.xlsx
@@ -525,10 +525,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -719,10 +719,10 @@
         <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -975,10 +975,10 @@
         <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
